--- a/biology/Histoire de la zoologie et de la botanique/Jean_Pagès-Allary/Jean_Pagès-Allary.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jean_Pagès-Allary/Jean_Pagès-Allary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean_Pag%C3%A8s-Allary</t>
+          <t>Jean_Pagès-Allary</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Baptiste Pagès-Alary est un géologue et un archéologue français, né le 22 septembre 1863 à Murat (Cantal), où il est décédé le 13 juin 1926[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Baptiste Pagès-Alary est un géologue et un archéologue français, né le 22 septembre 1863 à Murat (Cantal), où il est décédé le 13 juin 1926.
 Connu pour ses recherches minières sur la silice de Neussargues, l'or de Bonnac et la domite d'Albepierre, devenu célèbre par ses découvertes archéologiques à Chastel-sur-Murat, à La Tourille et au tumulus de Celles.
 Archéologue qui a surtout été actif dans le Cantal, il fut un membre de la Société de la Haute-Auvergne, et président de la  Société préhistorique française.
 Il fut aussi un précurseur du tourisme hivernal et du ski au Lioran.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean_Pag%C3%A8s-Allary</t>
+          <t>Jean_Pagès-Allary</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Attiré par les sciences naturelles, il se lia très tôt au groupe de naturalistes gravitant autour de Jean-Baptiste Rames (1832-1894) à Aurillac. Il s'initia à la géologie, à l'archéologie, participant à la vaste entreprise d'étude du  volcan cantalien lancée par Rames.
 Il travailla particulièrement avec  Marcellin Boule (1861-1942), Joseph Déchelette (1862-1914) et Pierre Marty (1863-1926).
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jean_Pag%C3%A8s-Allary</t>
+          <t>Jean_Pagès-Allary</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>[Pages-Allary, Déchelette &amp; Auby 1903] Jean Pages-Allary, Joseph Déchelette et Ant. Auby, « Le Tumulus arverne de Celles près Neussargues (Cantal) », L'Anthropologie,‎ 1903 (lire en ligne [sur gallica]).
 [Pages-Allary, Laubry &amp; Charvilhat 1911] Jean Pages-Allary, Ant. Lauby et G. Charvilhat, « La grotte Pic, à l'Orcier, près Retournac (Haute-Loire). Premiers sondages et fouilles des 7 et 8 novembre 1911 », Bulletin de la Société préhistorique française,‎ 1911, p. 717-719 (lire en ligne [sur persee]).</t>
